--- a/1º Sprint-BD/SP Medical Group/Modeling/SP-MG_Físico.xlsx
+++ b/1º Sprint-BD/SP Medical Group/Modeling/SP-MG_Físico.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Trio\Rafael\Dev\Senai-Dev\1º Sprint-BD\SP Medical Group\Modeling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274DC358-9865-425F-A26F-88A22EF793DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B863322-A2B2-4438-9267-0A2ED6791A2D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AA83A541-BAA1-43E6-BBC7-5E85DEC91FA4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{AA83A541-BAA1-43E6-BBC7-5E85DEC91FA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="96">
   <si>
     <t>TipoUsario</t>
   </si>
@@ -309,16 +309,10 @@
     <t>Texto...</t>
   </si>
   <si>
-    <t>HoraFuncionamento</t>
-  </si>
-  <si>
-    <t>idHF</t>
-  </si>
-  <si>
-    <t>abertura</t>
-  </si>
-  <si>
-    <t>fechamento</t>
+    <t>horaFuncionamento</t>
+  </si>
+  <si>
+    <t>09:00 - 20:00</t>
   </si>
 </sst>
 </file>
@@ -362,7 +356,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="28">
+  <fills count="27">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -519,14 +513,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -551,30 +539,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color theme="0" tint="-0.14999847407452621"/>
       </right>
@@ -604,6 +568,32 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -612,7 +602,126 @@
         <color theme="2"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color theme="2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
       </top>
       <bottom style="thin">
         <color theme="0" tint="-0.14999847407452621"/>
@@ -624,7 +733,9 @@
       <right style="thin">
         <color theme="2"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
       <bottom style="thin">
         <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
@@ -635,64 +746,14 @@
         <color theme="2"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
+        <color theme="2"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </right>
-      <top style="thin">
-        <color theme="2"/>
+        <color theme="0" tint="-0.249977111117893"/>
       </top>
       <bottom style="thin">
         <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -754,53 +815,44 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="25" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="3" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="25" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="3" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="26" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="26" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -811,9 +863,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1155,21 +1204,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0F70ED9-13BA-4047-B1DE-918FF32A2017}">
-  <dimension ref="A1:T32"/>
+  <dimension ref="A1:T35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="38.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16.42578125" customWidth="1"/>
@@ -1184,23 +1237,15 @@
       </c>
       <c r="B1" s="48"/>
       <c r="C1" s="48"/>
-      <c r="F1" s="46" t="s">
+      <c r="E1" s="46" t="s">
         <v>6</v>
       </c>
+      <c r="F1" s="46"/>
       <c r="G1" s="46"/>
       <c r="H1" s="46"/>
       <c r="I1" s="46"/>
       <c r="J1" s="46"/>
       <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="O1" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
     </row>
     <row r="2" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="49" t="s">
@@ -1210,44 +1255,26 @@
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E2" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F2" s="3" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="P2" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q2" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="R2" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="S2" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="T2" s="11" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
@@ -1258,44 +1285,26 @@
       <c r="C3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="4">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="G3" s="18" t="s">
         <v>70</v>
       </c>
+      <c r="H3" s="4">
+        <v>123456</v>
+      </c>
       <c r="I3" s="4">
-        <v>123456</v>
-      </c>
-      <c r="J3" s="4">
         <v>2</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="4">
-        <v>1</v>
-      </c>
-      <c r="O3" s="14">
-        <v>1</v>
-      </c>
-      <c r="P3" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q3" s="33">
-        <v>36378</v>
-      </c>
-      <c r="R3" s="14">
-        <v>3694781256</v>
-      </c>
-      <c r="S3" s="14">
-        <v>12345678974</v>
-      </c>
-      <c r="T3" s="14">
-        <v>2</v>
+      <c r="K3" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
@@ -1306,44 +1315,26 @@
       <c r="C4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="4">
+      <c r="E4" s="4">
         <v>2</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="G4" s="18" t="s">
         <v>73</v>
       </c>
+      <c r="H4" s="4">
+        <v>789456</v>
+      </c>
       <c r="I4" s="4">
-        <v>789456</v>
+        <v>3</v>
       </c>
       <c r="J4" s="4">
-        <v>3</v>
-      </c>
-      <c r="K4" s="4">
-        <v>1</v>
-      </c>
-      <c r="L4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="O4" s="14">
-        <v>2</v>
-      </c>
-      <c r="P4" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q4" s="33">
-        <v>35892</v>
-      </c>
-      <c r="R4" s="14">
-        <v>2567894828</v>
-      </c>
-      <c r="S4" s="14">
-        <v>45678925896</v>
-      </c>
-      <c r="T4" s="14">
-        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
@@ -1354,625 +1345,675 @@
       <c r="C5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="4">
+      <c r="E5" s="4">
         <v>3</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="G5" s="18" t="s">
         <v>75</v>
       </c>
+      <c r="H5" s="4">
+        <v>123789</v>
+      </c>
       <c r="I5" s="4">
-        <v>123789</v>
-      </c>
-      <c r="J5" s="4">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+    </row>
+    <row r="6" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="E6" s="4">
+        <v>4</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" s="4">
+        <v>741852</v>
+      </c>
+      <c r="I6" s="4">
+        <v>2</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="O5" s="30"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="30"/>
-      <c r="S5" s="30"/>
-      <c r="T5" s="30"/>
-    </row>
-    <row r="6" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="F6" s="4">
-        <v>4</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="I6" s="4">
-        <v>741852</v>
-      </c>
-      <c r="J6" s="4">
+      <c r="K6" s="4">
         <v>2</v>
       </c>
-      <c r="K6" s="4" t="s">
+    </row>
+    <row r="7" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="E7" s="4">
+        <v>5</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="H7" s="4">
+        <v>963852</v>
+      </c>
+      <c r="I7" s="4">
+        <v>3</v>
+      </c>
+      <c r="J7" s="4">
+        <v>2</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="4">
+    </row>
+    <row r="8" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="44"/>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="4">
+        <v>6</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8" s="4">
+        <v>159753</v>
+      </c>
+      <c r="I8" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="F7" s="4">
-        <v>5</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="I7" s="4">
-        <v>963852</v>
-      </c>
-      <c r="J7" s="4">
+      <c r="J8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="4">
         <v>3</v>
       </c>
-      <c r="K7" s="4">
+    </row>
+    <row r="9" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="39">
+        <v>1</v>
+      </c>
+      <c r="B9" s="39"/>
+      <c r="C9" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+      <c r="A10" s="39">
         <v>2</v>
       </c>
-      <c r="L7" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="F8" s="4">
-        <v>6</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="I8" s="4">
-        <v>159753</v>
-      </c>
-      <c r="J8" s="4">
-        <v>2</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="18" x14ac:dyDescent="0.35">
-      <c r="A10" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="F10" s="47" t="s">
+      <c r="B10" s="39"/>
+      <c r="C10" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="47" t="s">
         <v>13</v>
       </c>
+      <c r="F10" s="47"/>
       <c r="G10" s="47"/>
       <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="O10" s="45" t="s">
+    </row>
+    <row r="11" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="39">
+        <v>3</v>
+      </c>
+      <c r="B11" s="39"/>
+      <c r="C11" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="39">
+        <v>4</v>
+      </c>
+      <c r="B12" s="39"/>
+      <c r="C12" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="7">
+        <v>1</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="7">
+        <v>2</v>
+      </c>
+      <c r="H12" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="39">
+        <v>5</v>
+      </c>
+      <c r="B13" s="39"/>
+      <c r="C13" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="7">
+        <v>2</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="7">
+        <v>16</v>
+      </c>
+      <c r="H13" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="39">
+        <v>6</v>
+      </c>
+      <c r="B14" s="39"/>
+      <c r="C14" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="7">
+        <v>3</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" s="7">
+        <v>15</v>
+      </c>
+      <c r="H14" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="39">
+        <v>7</v>
+      </c>
+      <c r="B15" s="39"/>
+      <c r="C15" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+      <c r="A16" s="39">
+        <v>8</v>
+      </c>
+      <c r="B16" s="39"/>
+      <c r="C16" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+    </row>
+    <row r="17" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="39">
+        <v>9</v>
+      </c>
+      <c r="B17" s="39"/>
+      <c r="C17" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="39">
+        <v>10</v>
+      </c>
+      <c r="B18" s="39"/>
+      <c r="C18" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="15">
+        <v>1</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="J18" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="39">
+        <v>11</v>
+      </c>
+      <c r="B19" s="39"/>
+      <c r="C19" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+      <c r="A20" s="39">
+        <v>12</v>
+      </c>
+      <c r="B20" s="39"/>
+      <c r="C20" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+    </row>
+    <row r="21" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="39">
+        <v>13</v>
+      </c>
+      <c r="B21" s="39"/>
+      <c r="C21" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K21" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="39">
+        <v>14</v>
+      </c>
+      <c r="B22" s="39"/>
+      <c r="C22" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="16">
+        <v>1</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="G22" s="16">
+        <v>532</v>
+      </c>
+      <c r="H22" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="I22" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="J22" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="K22" s="16"/>
+    </row>
+    <row r="23" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="39">
+        <v>15</v>
+      </c>
+      <c r="B23" s="39"/>
+      <c r="C23" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="16">
+        <v>2</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G23" s="16">
+        <v>120</v>
+      </c>
+      <c r="H23" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="I23" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="J23" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="K23" s="16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="39">
+        <v>16</v>
+      </c>
+      <c r="B24" s="39"/>
+      <c r="C24" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="16">
+        <v>3</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="G24" s="16">
+        <v>66</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="J24" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="K24" s="16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+      <c r="A26" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="40"/>
+      <c r="E26" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+    </row>
+    <row r="27" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N27" s="33"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="34"/>
+      <c r="Q27" s="21"/>
+    </row>
+    <row r="28" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="12">
+        <v>1</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" s="14">
+        <v>1</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G28" s="23">
+        <v>36378</v>
+      </c>
+      <c r="H28" s="14">
+        <v>3694781256</v>
+      </c>
+      <c r="I28" s="14">
+        <v>12345678974</v>
+      </c>
+      <c r="J28" s="14">
+        <v>2</v>
+      </c>
+      <c r="N28" s="35"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="37"/>
+      <c r="Q28" s="38"/>
+    </row>
+    <row r="29" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="12">
+        <v>2</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" s="14">
+        <v>2</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="G29" s="23">
+        <v>35892</v>
+      </c>
+      <c r="H29" s="14">
+        <v>2567894828</v>
+      </c>
+      <c r="I29" s="14">
+        <v>45678925896</v>
+      </c>
+      <c r="J29" s="14">
+        <v>3</v>
+      </c>
+      <c r="N29" s="25"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="31"/>
+      <c r="Q29" s="32"/>
+      <c r="R29" s="26"/>
+    </row>
+    <row r="30" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="12">
+        <v>3</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="N30" s="20"/>
+      <c r="O30" s="27"/>
+      <c r="P30" s="28"/>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="19"/>
+    </row>
+    <row r="31" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+      <c r="E31" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="45"/>
-      <c r="R10" s="45"/>
-      <c r="S10" s="45"/>
-      <c r="T10" s="45"/>
-    </row>
-    <row r="11" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="5" t="s">
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="45"/>
+      <c r="N31" s="20"/>
+      <c r="Q31" s="20"/>
+      <c r="R31" s="20"/>
+    </row>
+    <row r="32" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="E32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I32" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="S11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="T11" s="2" t="s">
+      <c r="J32" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="38">
-        <v>1</v>
-      </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="7">
-        <v>1</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H12" s="7">
+    <row r="33" spans="5:10" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="E33" s="13">
+        <v>1</v>
+      </c>
+      <c r="F33" s="24">
+        <v>44445.291666666664</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="H33" s="13">
+        <v>1</v>
+      </c>
+      <c r="I33" s="13">
         <v>2</v>
       </c>
-      <c r="I12" s="7">
-        <v>1</v>
-      </c>
-      <c r="O12" s="13">
-        <v>1</v>
-      </c>
-      <c r="P12" s="34">
-        <v>44445.291666666664</v>
-      </c>
-      <c r="Q12" s="13" t="s">
+      <c r="J33" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="5:10" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="E34" s="13">
+        <v>2</v>
+      </c>
+      <c r="F34" s="24">
+        <v>44265.333333333336</v>
+      </c>
+      <c r="G34" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="R12" s="13">
-        <v>1</v>
-      </c>
-      <c r="S12" s="13">
+      <c r="H34" s="13">
+        <v>3</v>
+      </c>
+      <c r="I34" s="13">
+        <v>1</v>
+      </c>
+      <c r="J34" s="13">
         <v>2</v>
       </c>
-      <c r="T12" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="38">
+    </row>
+    <row r="35" spans="5:10" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="E35" s="13">
+        <v>3</v>
+      </c>
+      <c r="F35" s="24">
+        <v>44341.4375</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="H35" s="13">
         <v>2</v>
       </c>
-      <c r="B13" s="38"/>
-      <c r="C13" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="7">
-        <v>2</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H13" s="7">
-        <v>16</v>
-      </c>
-      <c r="I13" s="7">
-        <v>1</v>
-      </c>
-      <c r="O13" s="13">
-        <v>2</v>
-      </c>
-      <c r="P13" s="34">
-        <v>44265.333333333336</v>
-      </c>
-      <c r="Q13" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="R13" s="13">
+      <c r="I35" s="13">
         <v>3</v>
       </c>
-      <c r="S13" s="13">
-        <v>1</v>
-      </c>
-      <c r="T13" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="38">
-        <v>3</v>
-      </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="7">
-        <v>3</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H14" s="7">
-        <v>15</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1</v>
-      </c>
-      <c r="O14" s="13">
-        <v>3</v>
-      </c>
-      <c r="P14" s="34">
-        <v>44341.4375</v>
-      </c>
-      <c r="Q14" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="R14" s="13">
-        <v>2</v>
-      </c>
-      <c r="S14" s="13">
-        <v>3</v>
-      </c>
-      <c r="T14" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="38">
-        <v>4</v>
-      </c>
-      <c r="B15" s="38"/>
-      <c r="C15" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="38">
-        <v>5</v>
-      </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="38">
-        <v>6</v>
-      </c>
-      <c r="B17" s="38"/>
-      <c r="C17" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="18" x14ac:dyDescent="0.35">
-      <c r="A18" s="38">
-        <v>7</v>
-      </c>
-      <c r="B18" s="38"/>
-      <c r="C18" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
-      <c r="O18" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="P18" s="39"/>
-    </row>
-    <row r="19" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="38">
-        <v>8</v>
-      </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="O19" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="P19" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="38">
-        <v>9</v>
-      </c>
-      <c r="B20" s="38"/>
-      <c r="C20" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F20" s="15">
-        <v>1</v>
-      </c>
-      <c r="G20" s="15">
-        <v>1</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="I20" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="J20" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="K20" s="15">
-        <v>1</v>
-      </c>
-      <c r="O20" s="12">
-        <v>1</v>
-      </c>
-      <c r="P20" s="12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="38">
-        <v>10</v>
-      </c>
-      <c r="B21" s="38"/>
-      <c r="C21" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="23"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="30"/>
-      <c r="O21" s="12">
-        <v>2</v>
-      </c>
-      <c r="P21" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="38">
-        <v>11</v>
-      </c>
-      <c r="B22" s="38"/>
-      <c r="C22" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="23"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="30"/>
-      <c r="O22" s="12">
-        <v>3</v>
-      </c>
-      <c r="P22" s="12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="38">
-        <v>12</v>
-      </c>
-      <c r="B23" s="38"/>
-      <c r="C23" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E23" s="23"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="22"/>
-    </row>
-    <row r="24" spans="1:17" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="38">
-        <v>13</v>
-      </c>
-      <c r="B24" s="38"/>
-      <c r="C24" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="19"/>
-      <c r="F24" s="21"/>
-    </row>
-    <row r="25" spans="1:17" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="38">
-        <v>14</v>
-      </c>
-      <c r="B25" s="38"/>
-      <c r="C25" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F25" s="23"/>
-    </row>
-    <row r="26" spans="1:17" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="38">
-        <v>15</v>
-      </c>
-      <c r="B26" s="38"/>
-      <c r="C26" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="F26" s="23"/>
-    </row>
-    <row r="27" spans="1:17" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="38">
-        <v>16</v>
-      </c>
-      <c r="B27" s="38"/>
-      <c r="C27" s="13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" ht="18" x14ac:dyDescent="0.35">
-      <c r="F28" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="40"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="40"/>
-      <c r="L28" s="40"/>
-      <c r="O28" s="42" t="s">
-        <v>94</v>
-      </c>
-      <c r="P28" s="42"/>
-      <c r="Q28" s="42"/>
-    </row>
-    <row r="29" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="F29" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="I29" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="J29" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="K29" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="L29" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="O29" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="P29" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q29" s="35" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="F30" s="16">
-        <v>1</v>
-      </c>
-      <c r="G30" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="H30" s="16">
-        <v>532</v>
-      </c>
-      <c r="I30" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="J30" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="K30" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="L30" s="16"/>
-      <c r="O30" s="36">
-        <v>1</v>
-      </c>
-      <c r="P30" s="37">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="Q30" s="37">
-        <v>0.79166666666666663</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="F31" s="16">
-        <v>2</v>
-      </c>
-      <c r="G31" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="H31" s="16">
-        <v>120</v>
-      </c>
-      <c r="I31" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="J31" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="K31" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="L31" s="16" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="F32" s="16">
-        <v>3</v>
-      </c>
-      <c r="G32" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="H32" s="16">
-        <v>66</v>
-      </c>
-      <c r="I32" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="J32" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="K32" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="L32" s="16" t="s">
-        <v>89</v>
+      <c r="J35" s="13">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="O1:T1"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="F10:I10"/>
+  <mergeCells count="30">
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="E1:K1"/>
+    <mergeCell ref="E10:H10"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="O10:T10"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
@@ -1980,27 +2021,23 @@
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="E20:K20"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="F28:L28"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="F18:K18"/>
-    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="E16:J16"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H3" r:id="rId1" xr:uid="{A154AAB1-9E9A-42A2-9024-50A0A9FE7D10}"/>
-    <hyperlink ref="H6" r:id="rId2" xr:uid="{78E65364-4B79-404C-9397-78878A4D58BE}"/>
-    <hyperlink ref="H8" r:id="rId3" xr:uid="{630B0997-6D1A-457C-9942-A3D1D26A3C39}"/>
-    <hyperlink ref="H4" r:id="rId4" xr:uid="{84BB7C47-8C5D-4DEC-ABE3-D5953598B648}"/>
-    <hyperlink ref="H7" r:id="rId5" xr:uid="{E31B9D24-D28C-4E04-A728-418156D3DA20}"/>
-    <hyperlink ref="H5" r:id="rId6" xr:uid="{16ADEA65-BCCD-4AB1-98EA-889F11086302}"/>
+    <hyperlink ref="G3" r:id="rId1" xr:uid="{A154AAB1-9E9A-42A2-9024-50A0A9FE7D10}"/>
+    <hyperlink ref="G6" r:id="rId2" xr:uid="{78E65364-4B79-404C-9397-78878A4D58BE}"/>
+    <hyperlink ref="G8" r:id="rId3" xr:uid="{630B0997-6D1A-457C-9942-A3D1D26A3C39}"/>
+    <hyperlink ref="G4" r:id="rId4" xr:uid="{84BB7C47-8C5D-4DEC-ABE3-D5953598B648}"/>
+    <hyperlink ref="G7" r:id="rId5" xr:uid="{E31B9D24-D28C-4E04-A728-418156D3DA20}"/>
+    <hyperlink ref="G5" r:id="rId6" xr:uid="{16ADEA65-BCCD-4AB1-98EA-889F11086302}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
